--- a/data_830_2021ppp.xlsx
+++ b/data_830_2021ppp.xlsx
@@ -498,16 +498,16 @@
         <v>16.4</v>
       </c>
       <c r="E2">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="F2">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="G2">
-        <v>15.2</v>
+        <v>14.4</v>
       </c>
       <c r="H2">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -524,16 +524,16 @@
         <v>16.5</v>
       </c>
       <c r="E3">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
       <c r="F3">
-        <v>17.4</v>
+        <v>18.4</v>
       </c>
       <c r="G3">
-        <v>17.7</v>
+        <v>19.9</v>
       </c>
       <c r="H3">
-        <v>17.9</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -550,16 +550,16 @@
         <v>23.4</v>
       </c>
       <c r="E4">
-        <v>22.7</v>
+        <v>20.6</v>
       </c>
       <c r="F4">
-        <v>22.6</v>
+        <v>20.3</v>
       </c>
       <c r="G4">
-        <v>22.3</v>
+        <v>20.1</v>
       </c>
       <c r="H4">
-        <v>22.1</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -573,19 +573,19 @@
         <v>5.7</v>
       </c>
       <c r="D5">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="E5">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="F5">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G5">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H5">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -602,16 +602,16 @@
         <v>37.6</v>
       </c>
       <c r="E6">
-        <v>36.5</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="G6">
+        <v>35.7</v>
+      </c>
+      <c r="H6">
         <v>35.6</v>
-      </c>
-      <c r="H6">
-        <v>35.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -631,13 +631,13 @@
         <v>12.6</v>
       </c>
       <c r="F7">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="G7">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="H7">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -654,16 +654,16 @@
         <v>16.9</v>
       </c>
       <c r="E8">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>14.4</v>
+        <v>13.4</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>13.5</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -683,13 +683,13 @@
         <v>32.6</v>
       </c>
       <c r="F9">
-        <v>32.4</v>
+        <v>32.1</v>
       </c>
       <c r="G9">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -703,16 +703,16 @@
         <v>47.3</v>
       </c>
       <c r="E10">
-        <v>46.8</v>
+        <v>47</v>
       </c>
       <c r="F10">
-        <v>46.7</v>
+        <v>46.1</v>
       </c>
       <c r="G10">
-        <v>46.2</v>
+        <v>45.7</v>
       </c>
       <c r="H10">
-        <v>45.7</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -726,16 +726,16 @@
         <v>53.3</v>
       </c>
       <c r="E11">
-        <v>53</v>
+        <v>49.8</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>46.1</v>
       </c>
       <c r="G11">
-        <v>51.6</v>
+        <v>44.5</v>
       </c>
       <c r="H11">
-        <v>51.1</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -745,24 +745,6 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>27.8</v>
-      </c>
-      <c r="E12">
-        <v>27.3</v>
-      </c>
-      <c r="F12">
-        <v>27.2</v>
-      </c>
-      <c r="G12">
-        <v>27</v>
-      </c>
-      <c r="H12">
-        <v>26.7</v>
-      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -774,20 +756,17 @@
       <c r="C13">
         <v>27.4</v>
       </c>
-      <c r="D13">
-        <v>26.4</v>
-      </c>
       <c r="E13">
-        <v>26.1</v>
+        <v>21.7</v>
       </c>
       <c r="F13">
-        <v>26.5</v>
+        <v>21.8</v>
       </c>
       <c r="G13">
-        <v>26.3</v>
+        <v>21.6</v>
       </c>
       <c r="H13">
-        <v>25.9</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -804,16 +783,16 @@
         <v>37.9</v>
       </c>
       <c r="E14">
+        <v>39.2</v>
+      </c>
+      <c r="F14">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>37.1</v>
+      </c>
+      <c r="H14">
         <v>36.7</v>
-      </c>
-      <c r="F14">
-        <v>36.2</v>
-      </c>
-      <c r="G14">
-        <v>35.7</v>
-      </c>
-      <c r="H14">
-        <v>35.1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -827,16 +806,16 @@
         <v>19.8</v>
       </c>
       <c r="E15">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="F15">
-        <v>21.1</v>
+        <v>19.5</v>
       </c>
       <c r="G15">
-        <v>21.6</v>
+        <v>19.2</v>
       </c>
       <c r="H15">
-        <v>21.5</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -853,16 +832,16 @@
         <v>38.3</v>
       </c>
       <c r="E16">
-        <v>36.8</v>
+        <v>36.2</v>
       </c>
       <c r="F16">
-        <v>36</v>
+        <v>35.3</v>
       </c>
       <c r="G16">
-        <v>35.3</v>
+        <v>34.2</v>
       </c>
       <c r="H16">
-        <v>34.8</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -873,22 +852,22 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="D17">
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="E17">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="F17">
-        <v>20.4</v>
+        <v>19.3</v>
       </c>
       <c r="G17">
-        <v>19.3</v>
+        <v>17.9</v>
       </c>
       <c r="H17">
-        <v>18.6</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -905,16 +884,16 @@
         <v>29.9</v>
       </c>
       <c r="E18">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F18">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="G18">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>30.9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -931,16 +910,16 @@
         <v>6.6</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="F19">
         <v>5.8</v>
       </c>
       <c r="G19">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H19">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>

--- a/data_830_2021ppp.xlsx
+++ b/data_830_2021ppp.xlsx
@@ -504,10 +504,10 @@
         <v>14.7</v>
       </c>
       <c r="G2">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="H2">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -582,7 +582,7 @@
         <v>5.3</v>
       </c>
       <c r="G5">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H5">
         <v>5.1</v>
@@ -598,9 +598,6 @@
       <c r="C6">
         <v>40.2</v>
       </c>
-      <c r="D6">
-        <v>37.6</v>
-      </c>
       <c r="E6">
         <v>37</v>
       </c>
@@ -744,6 +741,24 @@
       </c>
       <c r="B12" t="s">
         <v>26</v>
+      </c>
+      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>27.9</v>
+      </c>
+      <c r="E12">
+        <v>25.5</v>
+      </c>
+      <c r="F12">
+        <v>25.2</v>
+      </c>
+      <c r="G12">
+        <v>24.9</v>
+      </c>
+      <c r="H12">
+        <v>24.6</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/data_830_2021ppp.xlsx
+++ b/data_830_2021ppp.xlsx
@@ -28,10 +28,10 @@
     <t>2023</t>
   </si>
   <si>
-    <t>2024e</t>
-  </si>
-  <si>
-    <t>2025f</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025e</t>
   </si>
   <si>
     <t>2026f</t>
